--- a/biology/Médecine/Thrombus/Thrombus.xlsx
+++ b/biology/Médecine/Thrombus/Thrombus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un thrombus est le produit final de la coagulation sanguine, par l'agrégation plaquettaire et l'activation du système de coagulation humorale. La thrombose consiste en la formation d'un thrombus obturant un vaisseau sanguin. Dans une terminologie non médicale, il s'agit d'un « caillot », mais ce dernier n'implique pas forcément qu'il se situe dans un vaisseau sanguin[1]. Il doit être différencié de l'hématome, collection de sang, pouvant être coagulé ou non, et se situant en dehors des vaisseaux sanguins. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un thrombus est le produit final de la coagulation sanguine, par l'agrégation plaquettaire et l'activation du système de coagulation humorale. La thrombose consiste en la formation d'un thrombus obturant un vaisseau sanguin. Dans une terminologie non médicale, il s'agit d'un « caillot », mais ce dernier n'implique pas forcément qu'il se situe dans un vaisseau sanguin. Il doit être différencié de l'hématome, collection de sang, pouvant être coagulé ou non, et se situant en dehors des vaisseaux sanguins. 
 Le thrombus peut se développer dans la circulation veineuse et donner lieu à une thrombose veineuse, ou dans la circulation artérielle et entraîner une occlusion artérielle avec ischémie voire infarctus. Son détachement et sa migration sont appelés embolies et entraînent fréquemment embolie pulmonaire ou accident vasculaire cérébral.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Facteurs favorisant la création d'un thrombus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ils sont donnés par la triade de Virchow.
 On peut noter les facteurs suivants, chacun favorisant un ou plusieurs facteurs de la triade de Virchow :
@@ -520,7 +534,7 @@
 stase ou turbulence sanguine : immobilisation prolongée, varices, compression extrinsèque sur la veine, insuffisance cardiaque, fibrillation auriculaire (dans ce cas le sang stagne dans les oreillettes), etc. ;
 hypercoagulabilité du sang : déficit héréditaire en inhibiteurs de la coagulation (antithrombine, protéine C, protéine S), grossesse, cancer, syndrome des antiphospholipides ;
 tabac ;
-certaines pilules contraceptives pourraient également faire courir ce risque à leurs utilisatrices[2].</t>
+certaines pilules contraceptives pourraient également faire courir ce risque à leurs utilisatrices.</t>
         </is>
       </c>
     </row>
@@ -548,7 +562,9 @@
           <t>Évolution d'un thrombus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le thrombus peut : 
 se dissoudre spontanément et disparaître par fibrinolyse naturelle, processus enzymatique ;
@@ -582,7 +598,9 @@
           <t>Sortes de thrombus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thrombus blanc : thrombus contenant des plaquettes et des leucocytes.
 Thrombus rouge : thrombus contenant des globules rouges et des plaquettes dans un réseau de fibrine (formé à partir du thrombus blanc).
@@ -619,7 +637,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement fera appel à des anticoagulants ou des thrombolytiques. Dans certains cas, notamment pour les thromboses artérielles,  peut être proposée une angioplastie ou une thrombo-aspiration.
 </t>
